--- a/Simulation/Nordnet/simulated_prices/10 year simulation GBM/Yearly Data/SXR4_sum_stat.xlsx
+++ b/Simulation/Nordnet/simulated_prices/10 year simulation GBM/Yearly Data/SXR4_sum_stat.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,262 +482,291 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0004793689114197266</v>
+        <v>0.000671299491772436</v>
       </c>
       <c r="B2" t="n">
-        <v>0.000392045422393239</v>
+        <v>0.0004003370169675113</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01078814799430434</v>
+        <v>0.01094815558673849</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001163841371470128</v>
+        <v>0.0001198621107514332</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03812584988918899</v>
+        <v>-0.03618843784319592</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.006208057030173492</v>
+        <v>-0.006825440675698458</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000392045422393239</v>
+        <v>0.0004003370169675113</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00785043011250941</v>
+        <v>0.007988545458789797</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03675855186034704</v>
+        <v>0.03587847337721795</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0001279755316079473</v>
+        <v>0.0004793689114197266</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0003347701615770138</v>
+        <v>0.000392045422393239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01075596466208152</v>
+        <v>0.01078814799430434</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0001156907758119465</v>
+        <v>0.0001163841371470128</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03824353585725648</v>
+        <v>-0.03812584988918899</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.007549739275088063</v>
+        <v>-0.006208057030173492</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003347701615770138</v>
+        <v>0.000392045422393239</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007445288835807862</v>
+        <v>0.00785043011250941</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03132259904685353</v>
+        <v>0.03675855186034704</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0005243216822108695</v>
+        <v>-0.0001279755316079473</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0003038784311839571</v>
+        <v>0.0003347701615770138</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01074539305426141</v>
+        <v>0.01075596466208152</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001154634718905693</v>
+        <v>0.0001156907758119465</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.03538631803534209</v>
+        <v>-0.03824353585725648</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.006284241900314762</v>
+        <v>-0.007549739275088063</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003038784311839571</v>
+        <v>0.0003347701615770138</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007631218561638731</v>
+        <v>0.007445288835807862</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03292806303629447</v>
+        <v>0.03132259904685353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0003716309675773716</v>
+        <v>0.0005243216822108695</v>
       </c>
       <c r="B5" t="n">
-        <v>0.000912089924542614</v>
+        <v>0.0003038784311839571</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01048944098533449</v>
+        <v>0.01074539305426141</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000110028372184815</v>
+        <v>0.0001154634718905693</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02923563754468028</v>
+        <v>-0.03538631803534209</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.006453693835907992</v>
+        <v>-0.006284241900314762</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000912089924542614</v>
+        <v>0.0003038784311839571</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00742042792050368</v>
+        <v>0.007631218561638731</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03528011345875415</v>
+        <v>0.03292806303629447</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0002888673612331086</v>
+        <v>0.0003716309675773716</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0004236097414594964</v>
+        <v>0.000912089924542614</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01072356820012288</v>
+        <v>0.01048944098533449</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0001149949149426866</v>
+        <v>0.000110028372184815</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03839863006791311</v>
+        <v>-0.02923563754468028</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.007024570969407146</v>
+        <v>-0.006453693835907992</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0004236097414594964</v>
+        <v>0.000912089924542614</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007309603258526532</v>
+        <v>0.00742042792050368</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03387169367492882</v>
+        <v>0.03528011345875415</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0001715900614726326</v>
+        <v>0.0002888673612331086</v>
       </c>
       <c r="B7" t="n">
-        <v>5.445125426961628e-05</v>
+        <v>0.0004236097414594964</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01084568135339446</v>
+        <v>0.01072356820012288</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001176288040193684</v>
+        <v>0.0001149949149426866</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03099692626854633</v>
+        <v>-0.03839863006791311</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.00770616044514208</v>
+        <v>-0.007024570969407146</v>
       </c>
       <c r="G7" t="n">
-        <v>5.445125426961628e-05</v>
+        <v>0.0004236097414594964</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007430201705555861</v>
+        <v>0.007309603258526532</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03346961941761295</v>
+        <v>0.03387169367492882</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.001022130365977378</v>
+        <v>0.0001715900614726326</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0008529307181421864</v>
+        <v>5.445125426961628e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01088502779891762</v>
+        <v>0.01084568135339446</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001184838301832093</v>
+        <v>0.0001176288040193684</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03352767114879962</v>
+        <v>-0.03099692626854633</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.006159580695163341</v>
+        <v>-0.00770616044514208</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0008529307181421864</v>
+        <v>5.445125426961628e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.008460164634204626</v>
+        <v>0.007430201705555861</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03381113554547555</v>
+        <v>0.03346961941761295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.001059347508668587</v>
+        <v>0.001022130365977378</v>
       </c>
       <c r="B9" t="n">
-        <v>0.001393363213186726</v>
+        <v>0.0008529307181421864</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01081380690256649</v>
+        <v>0.01088502779891762</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001169384197259946</v>
+        <v>0.0001184838301832093</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.032059066153035</v>
+        <v>-0.03352767114879962</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.006536681328161459</v>
+        <v>-0.006159580695163341</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001393363213186726</v>
+        <v>0.0008529307181421864</v>
       </c>
       <c r="H9" t="n">
-        <v>0.008447773265830405</v>
+        <v>0.008460164634204626</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03911543438955412</v>
+        <v>0.03381113554547555</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>0.001059347508668587</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.001393363213186726</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01081380690256649</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0001169384197259946</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.032059066153035</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.006536681328161459</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.001393363213186726</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.008447773265830405</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.03911543438955412</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>0.0003216851323536085</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>0.000197554533726052</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>0.01055351515570905</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>0.0001113766821417806</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E11" t="n">
         <v>-0.02947452387412308</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>-0.007542417626813265</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>0.000197554533726052</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>0.007894673291726828</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>0.03391679157905036</v>
       </c>
     </row>
